--- a/CashFlow/A_cashflow.xlsx
+++ b/CashFlow/A_cashflow.xlsx
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2971000000.0</v>
+        <v>-71000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2922000000.0</v>
+        <v>-68000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2197000000.0</v>
+        <v>-91000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1441000000.0</v>
+        <v>-100000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>682000000.0</v>
+        <v>-56000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-36000000.0</v>
@@ -994,19 +994,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>60000000.0</v>
+        <v>1396000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2000000.0</v>
+        <v>1327000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>23000000.0</v>
+        <v>1031000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>26000000.0</v>
+        <v>698000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>79000000.0</v>
+        <v>423000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>23000000.0</v>
